--- a/biology/Botanique/Belle_Lyonnaise/Belle_Lyonnaise.xlsx
+++ b/biology/Botanique/Belle_Lyonnaise/Belle_Lyonnaise.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-'Belle Lyonnaise' est un cultivar de rosier obtenu en 1869 par le rosiériste lyonnais Antoine Levet[1],[2]. Cette rose remporta un grand succès à la fin du XXe siècle et au début du XXe siècle.
+'Belle Lyonnaise' est un cultivar de rosier obtenu en 1869 par le rosiériste lyonnais Antoine Levet,. Cette rose remporta un grand succès à la fin du XXe siècle et au début du XXe siècle.
 </t>
         </is>
       </c>
@@ -512,11 +524,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce rosier thé présente de grosses fleurs d'un jaune pâle, de plus en plus clair au fur et à mesure, très pleines[3] (26-40 pétales), ayant au revers des pétales des reflets blanc crème. Elles sont en forme de coupe et modérément parfumées. La floraison est remontante.
-Son buisson érigé possède un feuillage de trois à cinq feuilles avec de longues feuilles ovales et pointues. Il supporte les hivers froids jusqu'à -20° et même encore plus froid si son pied est protégé[3]. Il existe aussi en rosier grimpant.
-Ce rosier est toujours commercialisé pour les amateurs de roses romantiques, mais dans peu de catalogues[4]. Il éclaire les plates bandes avec générosité et en version grimpante atteint plus de 3 mètres[3]. Sa taille doit être très modérée. Il descend de 'Gloire de Dijon' (Jacotot, 1850).
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce rosier thé présente de grosses fleurs d'un jaune pâle, de plus en plus clair au fur et à mesure, très pleines (26-40 pétales), ayant au revers des pétales des reflets blanc crème. Elles sont en forme de coupe et modérément parfumées. La floraison est remontante.
+Son buisson érigé possède un feuillage de trois à cinq feuilles avec de longues feuilles ovales et pointues. Il supporte les hivers froids jusqu'à -20° et même encore plus froid si son pied est protégé. Il existe aussi en rosier grimpant.
+Ce rosier est toujours commercialisé pour les amateurs de roses romantiques, mais dans peu de catalogues. Il éclaire les plates bandes avec générosité et en version grimpante atteint plus de 3 mètres. Sa taille doit être très modérée. Il descend de 'Gloire de Dijon' (Jacotot, 1850).
 </t>
         </is>
       </c>
